--- a/dataRule.xlsx
+++ b/dataRule.xlsx
@@ -10,22 +10,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="F2">
+      <text>
+        <t xml:space="preserve">update street address</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3">
+      <text>
+        <t xml:space="preserve">Update with deterministic value
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>Name</t>
+    <t>Table</t>
   </si>
   <si>
-    <t>address</t>
+    <t>Table_Fields</t>
   </si>
   <si>
-    <t>zip code</t>
+    <t>Foreign_Key</t>
   </si>
   <si>
-    <t>ALAX</t>
+    <t>Table_2</t>
   </si>
   <si>
-    <t>Pune</t>
+    <t>Table_2_Fields</t>
+  </si>
+  <si>
+    <t>Masking_Code</t>
+  </si>
+  <si>
+    <t>member_details</t>
+  </si>
+  <si>
+    <t>street_address</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Health_Plan_Id</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>plan_details</t>
   </si>
 </sst>
 </file>
@@ -93,19 +135,52 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>40001.0</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>102.0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>